--- a/biology/Zoologie/Frankixalus_jerdonii/Frankixalus_jerdonii.xlsx
+++ b/biology/Zoologie/Frankixalus_jerdonii/Frankixalus_jerdonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frankixalus jerdonii, unique représentant du genre Frankixalus, est une espèce d'amphibiens de la famille des Rhacophoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frankixalus jerdonii, unique représentant du genre Frankixalus, est une espèce d'amphibiens de la famille des Rhacophoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Inde. Elle se rencontre dans le Nord du Bengale-Occidental, au Meghalaya, au Manipur et au Nagaland[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Inde. Elle se rencontre dans le Nord du Bengale-Occidental, au Meghalaya, au Manipur et au Nagaland.
 Sa présence est incertaine au Népal.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Philautus jerdonii[2] mesure 48 mm. Cette espèce a la face dorsale gris brunâtre et la face ventrale blanchâtre. Sa gorge est tachetée de brunâtre. Ses membres sont rayées de sombres.
-Les mâles décrits par Biju et al. en 2016 mesurent de 37,1 à 42,1 mm et la femelle 46,8 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Philautus jerdonii mesure 48 mm. Cette espèce a la face dorsale gris brunâtre et la face ventrale blanchâtre. Sa gorge est tachetée de brunâtre. Ses membres sont rayées de sombres.
+Les mâles décrits par Biju et al. en 2016 mesurent de 37,1 à 42,1 mm et la femelle 46,8 mm.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Thomas Caverhill Jerdon[2].
-Ce genre est nommé en l'honneur de Franky Bossuyt[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Thomas Caverhill Jerdon.
+Ce genre est nommé en l'honneur de Franky Bossuyt.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1876 "1875" : Third report on collection of Indian reptiles obtained by British Museum. Proceedings of the Zoological Society of London, vol. 1875, p. 567-577 (texte intégral).
 Biju, Senevirathne, Garg, Mahony, Kamei, Thomas, Shouche, Raxworthy, Meegaskumbura &amp; Van Bocxlaer, 2016 : Frankixalus, a new rhacophorid genus of tree hole breeding frogs with oophagous tadpoles. PLOS ONE, vol. 11, no 1, p. e0145727, p. 1–17 (texte intégral).</t>
